--- a/espn_scrapper/IPL/Delhi Capitals/Ajinkya Rahane .xlsx
+++ b/espn_scrapper/IPL/Delhi Capitals/Ajinkya Rahane .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -717,9 +717,149 @@
         <v>22.22</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve"> Oct 17 2020</v>
+      </c>
+      <c r="B10" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F10" t="str">
+        <v xml:space="preserve">Ajinkya Rahane </v>
+      </c>
+      <c r="G10" t="str">
+        <v>8</v>
+      </c>
+      <c r="H10" t="str">
+        <v>10</v>
+      </c>
+      <c r="I10" t="str">
+        <v>1</v>
+      </c>
+      <c r="J10" t="str">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v>80.00</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve"> Nov 5 2020</v>
+      </c>
+      <c r="B11" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Mumbai won by 57 runs</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve">Ajinkya Rahane </v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve"> Oct 14 2020</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Capitals won by 13 runs</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve">Ajinkya Rahane </v>
+      </c>
+      <c r="G12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <v>9</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> Oct 11 2020</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Mumbai won by 5 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve">Ajinkya Rahane </v>
+      </c>
+      <c r="G13" t="str">
+        <v>15</v>
+      </c>
+      <c r="H13" t="str">
+        <v>15</v>
+      </c>
+      <c r="I13" t="str">
+        <v>3</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>100.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K13"/>
   </ignoredErrors>
 </worksheet>
 </file>